--- a/src/main/resources/20190909报价单.xlsx
+++ b/src/main/resources/20190909报价单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software\WeChat\data\WeChat Files\z215789328\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\workspace for idea\convoy\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB0E11-67E6-489B-967C-AB32B7B44486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A6D838-2048-41F8-8AC3-15FE41024A1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="203">
   <si>
     <t>机关汽车队管理系统报价单</t>
   </si>
@@ -706,6 +706,31 @@
   <si>
     <t>参数有很多变动，详情参考代码
 各类controller方法参数的第一个即为需要参数，通常命名为*Req,*Req类的各种属性即为需要传递的参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apply</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/car/getStatus(没有apply)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -985,6 +1010,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,18 +1033,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1325,19 +1350,19 @@
     <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="65.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="E1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="34" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1354,7 +1379,7 @@
       <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="31" t="s">
         <v>143</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -1365,10 +1390,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1396,7 +1421,7 @@
       <c r="D5" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>146</v>
       </c>
       <c r="G5" s="20" t="s">
@@ -1416,7 +1441,7 @@
       <c r="D6" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1433,7 +1458,7 @@
       <c r="D7" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1450,7 +1475,7 @@
       <c r="D8" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="32" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1479,7 +1504,7 @@
       <c r="D10" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1496,7 +1521,7 @@
       <c r="D11" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1504,7 +1529,7 @@
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7"/>
@@ -1525,7 +1550,7 @@
       <c r="D13" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="32" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1542,7 +1567,7 @@
       <c r="D14" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="32" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1559,7 +1584,7 @@
       <c r="D15" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="32" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1576,7 +1601,7 @@
       <c r="D16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="32" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1591,7 +1616,7 @@
       <c r="D17" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="32" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1608,7 +1633,7 @@
       <c r="D18" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="32" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1637,7 +1662,7 @@
       <c r="D20" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1654,7 +1679,7 @@
       <c r="D21" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1671,7 +1696,7 @@
       <c r="D22" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="32" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1688,7 +1713,7 @@
       <c r="D23" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="32" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1705,7 +1730,7 @@
       <c r="D24" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="32" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1722,7 +1747,7 @@
       <c r="D25" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="32" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1739,7 +1764,7 @@
       <c r="D26" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1756,7 +1781,7 @@
       <c r="D27" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1773,7 +1798,7 @@
       <c r="D28" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1790,7 +1815,7 @@
       <c r="D29" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1807,7 +1832,7 @@
       <c r="D30" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="32" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1824,7 +1849,7 @@
       <c r="D31" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="32" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1869,7 +1894,7 @@
       <c r="C35" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2009,6 +2034,9 @@
         <v>72</v>
       </c>
       <c r="C48" s="12"/>
+      <c r="D48" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -2020,6 +2048,9 @@
       <c r="C49" s="14" t="s">
         <v>74</v>
       </c>
+      <c r="D49" s="20" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
@@ -2053,6 +2084,9 @@
       <c r="C52" s="15" t="s">
         <v>80</v>
       </c>
+      <c r="D52" s="20" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
@@ -2066,17 +2100,17 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,7 +2154,7 @@
       <c r="C59" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="36"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -2368,11 +2402,11 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
@@ -2439,33 +2473,33 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
